--- a/FCS测试结果/测试用例_result_2022_10_05_13_07_25.xlsx
+++ b/FCS测试结果/测试用例_result_2022_10_05_13_07_25.xlsx
@@ -66,7 +66,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="9">
     <fill>
       <patternFill/>
     </fill>
@@ -86,12 +86,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
     <fill>
@@ -102,21 +107,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A5A5A5"/>
       </patternFill>
     </fill>
   </fills>
@@ -134,7 +124,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -162,7 +152,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -503,8 +492,8 @@
   </sheetPr>
   <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="J43" sqref="J43:L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15.6" customHeight="1"/>
@@ -610,7 +599,7 @@
           <t>{'data': {'fileHash': 'f3878c385d91824cdd4eec4a68cd1e14ae892021afba762e8612aa043f1a5cf99', 'code': 0, 'destFileName': '1', 'srcFileName': '1.docx', 'srcFileSize': '14481', 'destFileSize': '-1', 'convertType': 0, 'srcStoragePath': 'f3878c385d91824cdd4eec4a68cd1e14a/1.docx', 'destStoragePath': '2022/10/05/e63f9320ca71451e8d3d6ceb7615fd7c/1', 'convertTime': '136', 'viewUrl': 'http://192.168.80.114:8092/fcsserver/view/preview/NVVtJjzZjJUWQvoapsgsaEAaPb8AAlu3CLqJZT5uIdDabdvH3YJ_vz0uOIgI7xifO-goMDUsqBSiSZWw3k3LDgxf3uN5eQ2Li-FuQfV9vfgvoE4k5oyfBkXS9dHiWR2h2RgMnqUa0MMVZOFsN8ZXxF_J1fxvQZMXoJKwjHNdqovbqVf_mPghS42_17l_gFYSFP1rl13R3dd6L6zEsEouejs08Eu7Llw7LnLGSIhAQMRBF1Zj0H2WYvIm-KSphDnZmy1gt4G6gPUyAwb7gN4F-iA-LiaQRKobn4Ek6o9p490MkkVRUDIqSbU3pKnmTYPZpVgM0pllDJJAe-BZ-dKfbJJBy43dxVz09i4eyu3HPGkTfzzhFsKs9FobI9c2eqq4bmk2vWlQ3nHrPi0Dr-oIV4bCYkYonHg8o4Dpa24c2Wtijd__8PmkZvYV__7Yg5rD6GqAEfdiuoVv1gMgdzEE7HcW8MYUfx_yatQpfUZHbQ2JTZbEmwduMbsysgp1soUe10SD61jJ-f-gEdQGypUddc0hn1LDS2n-J-btzkwQPE_1Wl_c1elyfQ==/'}, 'message': '操作成功', 'errorcode': 0}</t>
         </is>
       </c>
-      <c r="G2" s="13" t="inlineStr">
+      <c r="G2" s="11" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
@@ -653,7 +642,7 @@
           <t>{'data': {'fileHash': 'f3878c385d91824cdd4eec4a68cd1e14a1937b54c23dfe6eae890e621fd21179c', 'code': 0, 'destFileName': '1', 'srcFileName': '1.docx', 'srcFileSize': '14481', 'destFileSize': '-1', 'convertType': 0, 'srcStoragePath': 'f3878c385d91824cdd4eec4a68cd1e14a/1.docx', 'destStoragePath': '2022/10/05/b8990fc83e844b94ba45df5933f4a179/1', 'convertTime': '105', 'viewUrl': 'http://192.168.80.114:8092/fcsserver/view/preview/LPdNsQMB1pzPB7yegfO3cFOvMAc9ikeGMHK-MaaiUowefjl9eP6xktRMr8vgiaxLcQNW6Xqb1NhT_Fxly5ANuFVUhK38n38DMSBeCOtV86exA-DA4rXDjbn9bdpPZQWupWotApBwLe5tAQAMW4tUfBgE1Rthgn3hyVgfXWJQcLOnUEGB7hy_esQsKitP6W-ohrmUKWxY3mMwj9oij0RxA5sWKRf0uqR7dvZs9RbU1Aj48Ks1JdO_9ZQVaHi-yFf67EbgYIWCPDQEc3Ui69iw6KasfeM1vBEGtSSv6gSEEEERz4SeQksV43BWanxsUyCuuoJo8rbA1cdo4zg8g3Ibeo07qt9KwH4PGmWsxyg5fH_9uxpdQ5WkyZKhtitRBkWDtmQIFRxM7_A3ArwSO8NzYYgwzIej8uhag8_ojZy1qUjZDht4lXdH1IB5IlguW9cxI518CeOg8BQY12Iu53yInZQW5YaUBkr71P1EB7-bfyBvZSBdKu84SSy30A82Qaoy67h31sceTagwUpH0z2sl94oYdGLeSSJvYfxDQDu0I-JZXTBY0VZSYg==/'}, 'message': '操作成功', 'errorcode': 0}</t>
         </is>
       </c>
-      <c r="G3" s="13" t="inlineStr">
+      <c r="G3" s="11" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
@@ -696,7 +685,7 @@
           <t>{'data': {'fileHash': 'f3878c385d91824cdd4eec4a68cd1e14aae49329d858dcfa6ffc7288abc4d5c22', 'code': 0, 'destFileName': '1', 'srcFileName': '1.docx', 'srcFileSize': '14481', 'destFileSize': '-1', 'convertType': 0, 'srcStoragePath': 'f3878c385d91824cdd4eec4a68cd1e14a/1.docx', 'destStoragePath': '2022/10/05/d291fdf80e6c47cdab84ff7d4d8a7e01/1', 'convertTime': '152', 'viewUrl': 'http://192.168.80.114:8092/fcsserver/view/preview/oFk-TCAg8b1WTX-WKVya0rM_94Ovh6Lz4QiVEr2lCY-FUyBs6BLQ0ZEAoDCgfjpS_BD7E57MXqEYM61dNc_1Ue7iRv4bXqBFZ39xR9jZ8gbbu2SZ6ui5oME5VvzxncGDABmtmpZVbYku6BuG_WUM9QFNa0s1Lnscsrio-eqPkSSPxuoWhRCwCQwSVX6DpzInJlzQObVR-FcZdGW6az_Kj24_D6NYaqxHaQRP-dxLV4oUpe9HiKimTEPjORXpqFuZ0-g2B_-ZthwLEmji85i6A5Bparl0hwBe2JsWZzAEZOmWvK9QeaL1Twha-K4gDeoGFqV_9FxrxpgXdnHpTCGEc8LWY--282m_47ejVDOfetM3_paoxSWBQcHPu6CLrz3UgUAJCFlndUMHM51rCIjK9MgG1DaPyLohM5XdVT69M2rnv7fFbtZMo2EUhlVbyUPB8lAn7DoCvfDb5XQgnHgLqeGlVysrkyVtG-U1ZTn5yZGR4_pnju1Mz8Ose3XgWNWY-7lm73e2ttodNJotgdWeH3YO6k_vp_QBIibjBs5EZFryijdwNl-SnQ==/'}, 'message': '操作成功', 'errorcode': 0}</t>
         </is>
       </c>
-      <c r="G4" s="13" t="inlineStr">
+      <c r="G4" s="11" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
@@ -739,7 +728,7 @@
           <t>{'data': {'fileHash': 'f3878c385d91824cdd4eec4a68cd1e14aae49329d858dcfa6ffc7288abc4d5c22', 'code': 0, 'destFileName': '1', 'srcFileName': '1.docx', 'srcFileSize': '14481', 'destFileSize': '-1', 'convertType': 0, 'srcStoragePath': 'f3878c385d91824cdd4eec4a68cd1e14a/1.docx', 'destStoragePath': '2022/10/05/587dd6db9e654eaebc1143c5d8a9431c/1', 'convertTime': '102', 'viewUrl': 'http://192.168.80.114:8092/fcsserver/view/preview/jb02kHGgDfzOAjKe1qkSus68iVCd98aanhMtPInLI2YidkhIqZ-YJwyw4wlkDie89YBoyod7EBtgjUGDo8t79DXjSJFu2JN3BQdbn4UWlXSdoG000xuuHhfiWqqeJeT6zRH0iQ5BxMxBcdqwy2wdalMRmxtLWog029bhm5-sCG6pxBYOxsPEUVehXT5kQwKQ0kkxVhG5cH5ypsgPhL3RnIl3WNHLgjQCwKuIlsvucetJDhqC8-A6AMLnXUA1dbDWE7et7C9IscH9EHx7JdtNWsG2RKo-pX2dASey1_eToV-oGs-FkWM2N1geIWJI8XlbFdUi02DVhcKbXFhYjydpihHmeloXhsNyRam4LrtnNH9HhmDkAEoEDEJxLohY_x5b-iHqr8IKOs2tFTvd3RSv7Ry8fARQYPLo_l3s1b9qlBS4d-t1Yli8sLF3DaZ0qO1ihLPlzWydAkM0VW9tqKlc2trI3QC_mfJ1U0daYcsLJDe-6VCncQE04qZKi1X5tkz4m2VUZvjwWNZv4wPEVNf5T7Y956rabR4eEp4fO54Af_PmH4WOomfNZTrNbBVx2FPTgbZTXBi7TuGlhpV1QuSPWg==/'}, 'message': '操作成功', 'errorcode': 0}</t>
         </is>
       </c>
-      <c r="G5" s="13" t="inlineStr">
+      <c r="G5" s="11" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
@@ -782,7 +771,7 @@
           <t>{'data': {'fileHash': 'f3878c385d91824cdd4eec4a68cd1e14aae49329d858dcfa6ffc7288abc4d5c22', 'code': 0, 'destFileName': '1', 'srcFileName': '1.docx', 'srcFileSize': '14481', 'destFileSize': '-1', 'convertType': 0, 'srcStoragePath': 'f3878c385d91824cdd4eec4a68cd1e14a/1.docx', 'destStoragePath': '2022/10/05/76e81d71dfad4da2a5a306d93cfe5e15/1', 'convertTime': '74', 'viewUrl': 'http://192.168.80.114:8092/fcsserver/view/preview/UGpB8v5sKXKzakE3TClcx51sPCfAP23ARF-Vwc5dXmGBd6c6-Yo8KVqojHuXdMIMTQFfIO_fYotne_nH7esO8YAS4lR3AummvStYGDfkC1dgdr2y1nEtpsS71AR6pZoazZJFpZNXYM4iOVMjojtSfKjcBa-IIb-oc5XKVYZnBLJG7kg1E6BCYlfjE9wHV9RXZY_Z9JbIg---T3bb8ckT0iqTawMwZWRnFWvj07C1jWL1eDaJzjYQVfGEjNvr3KRx80_du5v7Pqr_KvKLl1_WVCh59ebqGZe0ip-YMF9xT8yDNK1_osYxT8-ksATYmeFEN-52Qvyl8C0-kX3sQhHz7FSvepQcyRJeBcBgyiRUPUt3pmqWDDLe17fHwM-jTKFARA1UjagfqMqvMiLEQ1awONscQhUbK8vhvgynGtPGvYUDvoBHwGwf9Egf7a2qXmDcCovRcNvjUeYnmmPsE55pBPwAU199diSX9y4gr3Gwci5YQj43mRVIbqkrgq3vJpfmZC16V78DYM3rOmow5Sh8O7NS9-cXjTMszsxHyU20Y1cqrJV09h5IAQ==/'}, 'message': '操作成功', 'errorcode': 0}</t>
         </is>
       </c>
-      <c r="G6" s="13" t="inlineStr">
+      <c r="G6" s="11" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
@@ -794,6 +783,11 @@
       </c>
       <c r="I6" s="6" t="n">
         <v>1</v>
+      </c>
+      <c r="J6" s="0" t="inlineStr">
+        <is>
+          <t>doc_0_005.png</t>
+        </is>
       </c>
     </row>
     <row r="7" ht="15.6" customFormat="1" customHeight="1" s="1">
@@ -825,7 +819,7 @@
           <t>{'data': {'fileHash': 'f3878c385d91824cdd4eec4a68cd1e14aae49329d858dcfa6ffc7288abc4d5c22', 'code': 0, 'destFileName': '1', 'srcFileName': '1.docx', 'srcFileSize': '14481', 'destFileSize': '-1', 'convertType': 0, 'srcStoragePath': 'f3878c385d91824cdd4eec4a68cd1e14a/1.docx', 'destStoragePath': '2022/10/05/6d905c86dbf442fdac7645e4205fe5c8/1', 'convertTime': '155', 'viewUrl': 'http://192.168.80.114:8092/fcsserver/view/preview/moAYHbntudcQOlr_X4JYQ4B4HMw_CRFS9R5mk1hOXo9t89rTc3VcqBn4CIdDlZ1YZCpB2oT_AuThBKQu9_Rj9BpFhwuJ7NjIKG4cHb1q54Z9fGrJQpVAV5NxjHKioLbqx7WEUIyQSFd9nfb1nPdJ7wsnYfdrc07d2XEMgkcoN1TdjjYdACSgGrm9v3zLG25Ppi4BMEEn7PSTxdXvbmq_pz4vX039gkKtdlzVLc2HdOZGFIIuJcJHe67I850_NKuGg8oDlmQRq_eOHRM6kjOftoxC3hr79epYkYUy6MDwgxWyaM22lPG1PyKSRJhr430iwPmtRZweu7Pu2KfiDNyLIuYhxv4flTmNR0OPdPuVAozImffXHXrjg_HB19cdJ2qsUVFLDKNKQcBfZw9-qC_eoBKrPDvejeMQcYe2KTxoyYKHC0cd7gzqRNOy4YsR8j6GDhwy7NL-xYMklyaqrsjis4IgliyBeUHu5KNzAPZg4DXi9bXD8FXLdChIOvZU3X6UKw7oK2YGJcHJZMT7XrFNaWHHo6lxLwPk3tM74ObhsbE5hQd-LdqS6A==/'}, 'message': '操作成功', 'errorcode': 0}</t>
         </is>
       </c>
-      <c r="G7" s="13" t="inlineStr">
+      <c r="G7" s="11" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
@@ -837,6 +831,11 @@
       </c>
       <c r="I7" s="6" t="n">
         <v>1</v>
+      </c>
+      <c r="J7" s="0" t="inlineStr">
+        <is>
+          <t>doc_0_006.png</t>
+        </is>
       </c>
     </row>
     <row r="8" ht="15.6" customFormat="1" customHeight="1" s="1">
@@ -868,7 +867,7 @@
           <t>{'data': {'fileHash': 'f92d576fafd8f134259c2643c7c957258bf99ff41d4f55ded06f1c97387912446', 'code': 2, 'destFileName': '', 'srcFileName': '', 'srcFileSize': '11837', 'destFileSize': '0', 'convertType': 0, 'srcStoragePath': '', 'destStoragePath': '', 'convertTime': '865'}, 'message': '无法打开指定文档', 'errorcode': 2}</t>
         </is>
       </c>
-      <c r="G8" s="14" t="inlineStr">
+      <c r="G8" s="12" t="inlineStr">
         <is>
           <t>失败</t>
         </is>
@@ -906,7 +905,7 @@
           <t>{'data': {'fileHash': 'f92d576fafd8f134259c2643c7c9572585e524f8885e21fd5a588d9b23c78e76f', 'code': 2, 'destFileName': '', 'srcFileName': '', 'srcFileSize': '11837', 'destFileSize': '0', 'convertType': 0, 'srcStoragePath': '', 'destStoragePath': '', 'convertTime': '862'}, 'message': '无法打开指定文档', 'errorcode': 2}</t>
         </is>
       </c>
-      <c r="G9" s="14" t="inlineStr">
+      <c r="G9" s="12" t="inlineStr">
         <is>
           <t>失败</t>
         </is>
@@ -1000,6 +999,11 @@
       <c r="I11" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="J11" s="0" t="inlineStr">
+        <is>
+          <t>doc_0_010.png</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="15.6" customFormat="1" customHeight="1" s="1">
       <c r="A12" s="1" t="inlineStr">
@@ -1043,6 +1047,11 @@
       <c r="I12" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="J12" s="0" t="inlineStr">
+        <is>
+          <t>doc_0_011.png</t>
+        </is>
+      </c>
     </row>
     <row r="13" ht="15.6" customFormat="1" customHeight="1" s="1">
       <c r="A13" s="1" t="inlineStr">
@@ -1073,7 +1082,7 @@
           <t>{'data': {'fileHash': 'fcb5c189d40f4b914460b84b208689591807c7474e2740cf11406b50a5dcbd379', 'code': 4, 'destFileName': '', 'srcFileName': '', 'srcFileSize': '16384', 'destFileSize': '0', 'convertType': 0, 'srcStoragePath': '', 'destStoragePath': '', 'convertTime': '861'}, 'message': '转换的文档为加密文档或密码有误，请重新添加password参数进行转换', 'errorcode': 4}</t>
         </is>
       </c>
-      <c r="G13" s="14" t="inlineStr">
+      <c r="G13" s="12" t="inlineStr">
         <is>
           <t>失败</t>
         </is>
@@ -1124,6 +1133,21 @@
       <c r="I14" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="J14" s="0" t="inlineStr">
+        <is>
+          <t>doc_0_013.png</t>
+        </is>
+      </c>
+      <c r="K14" s="0" t="inlineStr">
+        <is>
+          <t>doc_0_013.png</t>
+        </is>
+      </c>
+      <c r="L14" s="14" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
     </row>
     <row r="15" ht="15.6" customFormat="1" customHeight="1" s="1">
       <c r="A15" s="1" t="inlineStr">
@@ -1210,6 +1234,11 @@
       <c r="I16" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="J16" s="0" t="inlineStr">
+        <is>
+          <t>doc_0_015.png</t>
+        </is>
+      </c>
     </row>
     <row r="17" ht="15.6" customFormat="1" customHeight="1" s="1">
       <c r="A17" s="1" t="inlineStr">
@@ -1253,6 +1282,11 @@
       <c r="I17" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="J17" s="0" t="inlineStr">
+        <is>
+          <t>doc_0_016.png</t>
+        </is>
+      </c>
     </row>
     <row r="18" ht="15.6" customFormat="1" customHeight="1" s="1">
       <c r="A18" s="1" t="inlineStr">
@@ -1382,6 +1416,11 @@
       <c r="I20" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="J20" s="0" t="inlineStr">
+        <is>
+          <t>doc_0_019.png</t>
+        </is>
+      </c>
     </row>
     <row r="21" ht="15.6" customFormat="1" customHeight="1" s="1">
       <c r="A21" s="1" t="inlineStr">
@@ -1726,6 +1765,11 @@
       <c r="I28" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="J28" s="0" t="inlineStr">
+        <is>
+          <t>doc_0_027.png</t>
+        </is>
+      </c>
     </row>
     <row r="29" ht="15.6" customFormat="1" customHeight="1" s="1">
       <c r="A29" s="1" t="inlineStr">
@@ -1769,6 +1813,11 @@
       <c r="I29" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="J29" s="0" t="inlineStr">
+        <is>
+          <t>doc_0_028.png</t>
+        </is>
+      </c>
     </row>
     <row r="30" ht="15.6" customFormat="1" customHeight="1" s="1">
       <c r="A30" s="1" t="inlineStr">
@@ -1812,6 +1861,11 @@
       <c r="I30" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="J30" s="0" t="inlineStr">
+        <is>
+          <t>doc_0_029.png</t>
+        </is>
+      </c>
     </row>
     <row r="31" ht="15.6" customFormat="1" customHeight="1" s="1">
       <c r="A31" s="1" t="inlineStr">
@@ -1855,6 +1909,11 @@
       <c r="I31" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="J31" s="0" t="inlineStr">
+        <is>
+          <t>doc_0_030.png</t>
+        </is>
+      </c>
     </row>
     <row r="32" ht="15.6" customFormat="1" customHeight="1" s="1">
       <c r="A32" s="1" t="inlineStr">
@@ -1898,6 +1957,11 @@
       <c r="I32" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="J32" s="0" t="inlineStr">
+        <is>
+          <t>doc_0_031.png</t>
+        </is>
+      </c>
     </row>
     <row r="33" ht="15.6" customFormat="1" customHeight="1" s="1">
       <c r="A33" s="1" t="inlineStr">
@@ -1941,6 +2005,11 @@
       <c r="I33" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="J33" s="0" t="inlineStr">
+        <is>
+          <t>doc_0_032.png</t>
+        </is>
+      </c>
     </row>
     <row r="34" ht="15.6" customFormat="1" customHeight="1" s="1">
       <c r="A34" s="1" t="inlineStr">
@@ -1984,6 +2053,11 @@
       <c r="I34" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="J34" s="0" t="inlineStr">
+        <is>
+          <t>doc_0_033.png</t>
+        </is>
+      </c>
     </row>
     <row r="35" ht="15.6" customFormat="1" customHeight="1" s="1">
       <c r="A35" s="1" t="inlineStr">
@@ -2027,6 +2101,11 @@
       <c r="I35" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="J35" s="0" t="inlineStr">
+        <is>
+          <t>doc_0_034.png</t>
+        </is>
+      </c>
     </row>
     <row r="36" ht="15.6" customFormat="1" customHeight="1" s="1">
       <c r="A36" s="1" t="inlineStr">
@@ -2070,6 +2149,11 @@
       <c r="I36" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="J36" s="0" t="inlineStr">
+        <is>
+          <t>doc_0_035.png</t>
+        </is>
+      </c>
     </row>
     <row r="37" ht="15.6" customFormat="1" customHeight="1" s="1">
       <c r="A37" s="1" t="inlineStr">
@@ -2113,6 +2197,11 @@
       <c r="I37" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="J37" s="0" t="inlineStr">
+        <is>
+          <t>doc_0_036.png</t>
+        </is>
+      </c>
     </row>
     <row r="38" ht="15.6" customFormat="1" customHeight="1" s="1">
       <c r="A38" s="1" t="inlineStr">
@@ -2156,6 +2245,11 @@
       <c r="I38" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="J38" s="0" t="inlineStr">
+        <is>
+          <t>doc_0_037.png</t>
+        </is>
+      </c>
     </row>
     <row r="39" ht="15.6" customFormat="1" customHeight="1" s="1">
       <c r="A39" s="1" t="inlineStr">
@@ -2199,6 +2293,11 @@
       <c r="I39" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="J39" s="0" t="inlineStr">
+        <is>
+          <t>doc_0_038.png</t>
+        </is>
+      </c>
     </row>
     <row r="40" ht="15.6" customFormat="1" customHeight="1" s="1">
       <c r="A40" s="1" t="inlineStr">
@@ -2242,6 +2341,11 @@
       <c r="I40" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="J40" s="0" t="inlineStr">
+        <is>
+          <t>doc_0_039.png</t>
+        </is>
+      </c>
     </row>
     <row r="41" ht="15.6" customFormat="1" customHeight="1" s="1">
       <c r="A41" s="1" t="inlineStr">
@@ -2285,6 +2389,21 @@
       <c r="I41" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="J41" s="0" t="inlineStr">
+        <is>
+          <t>doc_0_040.png</t>
+        </is>
+      </c>
+      <c r="K41" s="0" t="inlineStr">
+        <is>
+          <t>doc_0_040.png</t>
+        </is>
+      </c>
+      <c r="L41" s="14" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
     </row>
     <row r="42" ht="15.6" customFormat="1" customHeight="1" s="1">
       <c r="A42" s="1" t="inlineStr">
@@ -2328,6 +2447,21 @@
       <c r="I42" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="J42" s="0" t="inlineStr">
+        <is>
+          <t>doc_0_041.png</t>
+        </is>
+      </c>
+      <c r="K42" s="0" t="inlineStr">
+        <is>
+          <t>doc_0_041.png</t>
+        </is>
+      </c>
+      <c r="L42" s="14" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
     </row>
     <row r="43" ht="15.6" customFormat="1" customHeight="1" s="1">
       <c r="A43" s="1" t="inlineStr">
@@ -2371,6 +2505,21 @@
       <c r="I43" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="J43" s="0" t="inlineStr">
+        <is>
+          <t>doc_0_042.png</t>
+        </is>
+      </c>
+      <c r="K43" s="0" t="inlineStr">
+        <is>
+          <t>doc_0_042.png</t>
+        </is>
+      </c>
+      <c r="L43" s="14" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
     </row>
     <row r="44" ht="15.6" customFormat="1" customHeight="1" s="1">
       <c r="A44" s="1" t="inlineStr">
@@ -2401,7 +2550,7 @@
           <t>{'data': {'fileHash': 'f3878c385d91824cdd4eec4a68cd1e14aae49329d858dcfa6ffc7288abc4d5c22', 'code': 26, 'destFileName': '', 'srcFileName': '', 'srcFileSize': '14481', 'destFileSize': '0', 'convertType': 0, 'srcStoragePath': '', 'destStoragePath': '', 'convertTime': '0'}, 'message': '图片水印不存在或文件有误,请检查', 'errorcode': 26}</t>
         </is>
       </c>
-      <c r="G44" s="14" t="inlineStr">
+      <c r="G44" s="12" t="inlineStr">
         <is>
           <t>失败</t>
         </is>
@@ -2439,7 +2588,7 @@
           <t>{'data': {'fileHash': 'f3878c385d91824cdd4eec4a68cd1e14aae49329d858dcfa6ffc7288abc4d5c22', 'code': 26, 'destFileName': '', 'srcFileName': '', 'srcFileSize': '14481', 'destFileSize': '0', 'convertType': 0, 'srcStoragePath': '', 'destStoragePath': '', 'convertTime': '1'}, 'message': '图片水印不存在或文件有误,请检查', 'errorcode': 26}</t>
         </is>
       </c>
-      <c r="G45" s="14" t="inlineStr">
+      <c r="G45" s="12" t="inlineStr">
         <is>
           <t>失败</t>
         </is>
@@ -2477,7 +2626,7 @@
           <t>{'data': {'fileHash': 'f3878c385d91824cdd4eec4a68cd1e14aae49329d858dcfa6ffc7288abc4d5c22', 'code': 26, 'destFileName': '', 'srcFileName': '', 'srcFileSize': '14481', 'destFileSize': '0', 'convertType': 0, 'srcStoragePath': '', 'destStoragePath': '', 'convertTime': '1'}, 'message': '图片水印不存在或文件有误,请检查', 'errorcode': 26}</t>
         </is>
       </c>
-      <c r="G46" s="14" t="inlineStr">
+      <c r="G46" s="12" t="inlineStr">
         <is>
           <t>失败</t>
         </is>
@@ -2515,7 +2664,7 @@
           <t>{'data': {'fileHash': 'f3878c385d91824cdd4eec4a68cd1e14aae49329d858dcfa6ffc7288abc4d5c22', 'code': 26, 'destFileName': '', 'srcFileName': '', 'srcFileSize': '14481', 'destFileSize': '0', 'convertType': 0, 'srcStoragePath': '', 'destStoragePath': '', 'convertTime': '1'}, 'message': '图片水印不存在或文件有误,请检查', 'errorcode': 26}</t>
         </is>
       </c>
-      <c r="G47" s="14" t="inlineStr">
+      <c r="G47" s="12" t="inlineStr">
         <is>
           <t>失败</t>
         </is>
@@ -2553,7 +2702,7 @@
           <t>{'data': {'fileHash': 'f3878c385d91824cdd4eec4a68cd1e14aae49329d858dcfa6ffc7288abc4d5c22', 'code': 26, 'destFileName': '', 'srcFileName': '', 'srcFileSize': '14481', 'destFileSize': '0', 'convertType': 0, 'srcStoragePath': '', 'destStoragePath': '', 'convertTime': '1'}, 'message': '图片水印不存在或文件有误,请检查', 'errorcode': 26}</t>
         </is>
       </c>
-      <c r="G48" s="14" t="inlineStr">
+      <c r="G48" s="12" t="inlineStr">
         <is>
           <t>失败</t>
         </is>
@@ -2591,7 +2740,7 @@
           <t>{'data': {'fileHash': 'f3878c385d91824cdd4eec4a68cd1e14aae49329d858dcfa6ffc7288abc4d5c22', 'code': 26, 'destFileName': '', 'srcFileName': '', 'srcFileSize': '14481', 'destFileSize': '0', 'convertType': 0, 'srcStoragePath': '', 'destStoragePath': '', 'convertTime': '0'}, 'message': '图片水印不存在或文件有误,请检查', 'errorcode': 26}</t>
         </is>
       </c>
-      <c r="G49" s="14" t="inlineStr">
+      <c r="G49" s="12" t="inlineStr">
         <is>
           <t>失败</t>
         </is>
@@ -2629,7 +2778,7 @@
           <t>{'data': {'fileHash': 'f3878c385d91824cdd4eec4a68cd1e14aae49329d858dcfa6ffc7288abc4d5c22', 'code': 26, 'destFileName': '', 'srcFileName': '', 'srcFileSize': '14481', 'destFileSize': '0', 'convertType': 0, 'srcStoragePath': '', 'destStoragePath': '', 'convertTime': '1'}, 'message': '图片水印不存在或文件有误,请检查', 'errorcode': 26}</t>
         </is>
       </c>
-      <c r="G50" s="14" t="inlineStr">
+      <c r="G50" s="12" t="inlineStr">
         <is>
           <t>失败</t>
         </is>
@@ -2667,7 +2816,7 @@
           <t>{'data': {'fileHash': 'f3878c385d91824cdd4eec4a68cd1e14aae49329d858dcfa6ffc7288abc4d5c22', 'code': 26, 'destFileName': '', 'srcFileName': '', 'srcFileSize': '14481', 'destFileSize': '0', 'convertType': 0, 'srcStoragePath': '', 'destStoragePath': '', 'convertTime': '1'}, 'message': '图片水印不存在或文件有误,请检查', 'errorcode': 26}</t>
         </is>
       </c>
-      <c r="G51" s="14" t="inlineStr">
+      <c r="G51" s="12" t="inlineStr">
         <is>
           <t>失败</t>
         </is>
@@ -2705,7 +2854,7 @@
           <t>{'data': {'fileHash': 'f3878c385d91824cdd4eec4a68cd1e14aae49329d858dcfa6ffc7288abc4d5c22', 'code': 26, 'destFileName': '', 'srcFileName': '', 'srcFileSize': '14481', 'destFileSize': '0', 'convertType': 0, 'srcStoragePath': '', 'destStoragePath': '', 'convertTime': '1'}, 'message': '图片水印不存在或文件有误,请检查', 'errorcode': 26}</t>
         </is>
       </c>
-      <c r="G52" s="14" t="inlineStr">
+      <c r="G52" s="12" t="inlineStr">
         <is>
           <t>失败</t>
         </is>
@@ -2743,7 +2892,7 @@
           <t>{'data': {'fileHash': 'f3878c385d91824cdd4eec4a68cd1e14aae49329d858dcfa6ffc7288abc4d5c22', 'code': 26, 'destFileName': '', 'srcFileName': '', 'srcFileSize': '14481', 'destFileSize': '0', 'convertType': 0, 'srcStoragePath': '', 'destStoragePath': '', 'convertTime': '1'}, 'message': '图片水印不存在或文件有误,请检查', 'errorcode': 26}</t>
         </is>
       </c>
-      <c r="G53" s="14" t="inlineStr">
+      <c r="G53" s="12" t="inlineStr">
         <is>
           <t>失败</t>
         </is>
@@ -2781,7 +2930,7 @@
           <t>{'data': {'fileHash': 'f3878c385d91824cdd4eec4a68cd1e14aae49329d858dcfa6ffc7288abc4d5c22', 'code': 26, 'destFileName': '', 'srcFileName': '', 'srcFileSize': '14481', 'destFileSize': '0', 'convertType': 0, 'srcStoragePath': '', 'destStoragePath': '', 'convertTime': '0'}, 'message': '图片水印不存在或文件有误,请检查', 'errorcode': 26}</t>
         </is>
       </c>
-      <c r="G54" s="14" t="inlineStr">
+      <c r="G54" s="12" t="inlineStr">
         <is>
           <t>失败</t>
         </is>
@@ -2832,6 +2981,11 @@
       <c r="I55" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="J55" s="0" t="inlineStr">
+        <is>
+          <t>doc_0_054.png</t>
+        </is>
+      </c>
     </row>
     <row r="56" ht="45.75" customFormat="1" customHeight="1" s="1">
       <c r="A56" s="1" t="inlineStr">
@@ -2862,7 +3016,7 @@
           <t>{'data': {'fileHash': 'f3878c385d91824cdd4eec4a68cd1e14aae49329d858dcfa6ffc7288abc4d5c22', 'code': 26, 'destFileName': '', 'srcFileName': '', 'srcFileSize': '14481', 'destFileSize': '0', 'convertType': 0, 'srcStoragePath': '', 'destStoragePath': '', 'convertTime': '1'}, 'message': '图片水印不存在或文件有误,请检查', 'errorcode': 26}</t>
         </is>
       </c>
-      <c r="G56" s="14" t="inlineStr">
+      <c r="G56" s="12" t="inlineStr">
         <is>
           <t>失败</t>
         </is>
@@ -2913,6 +3067,11 @@
       <c r="I57" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="J57" s="0" t="inlineStr">
+        <is>
+          <t>doc_0_056.png</t>
+        </is>
+      </c>
     </row>
     <row r="58" ht="45.75" customFormat="1" customHeight="1" s="1">
       <c r="A58" s="1" t="inlineStr">
@@ -2955,6 +3114,11 @@
       </c>
       <c r="I58" s="6" t="n">
         <v>1</v>
+      </c>
+      <c r="J58" s="0" t="inlineStr">
+        <is>
+          <t>doc_0_057.png</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -2969,95 +3133,126 @@
     <hyperlink ref="H5" r:id="rId8"/>
     <hyperlink ref="B6" r:id="rId9"/>
     <hyperlink ref="H6" r:id="rId10"/>
-    <hyperlink ref="B7" r:id="rId11"/>
-    <hyperlink ref="H7" r:id="rId12"/>
-    <hyperlink ref="B8" r:id="rId13"/>
-    <hyperlink ref="B9" r:id="rId14"/>
-    <hyperlink ref="B10" r:id="rId15"/>
-    <hyperlink ref="H10" r:id="rId16"/>
-    <hyperlink ref="B11" r:id="rId17"/>
-    <hyperlink ref="H11" r:id="rId18"/>
-    <hyperlink ref="B12" r:id="rId19"/>
-    <hyperlink ref="H12" r:id="rId20"/>
-    <hyperlink ref="B13" r:id="rId21"/>
-    <hyperlink ref="B14" r:id="rId22"/>
-    <hyperlink ref="H14" r:id="rId23"/>
-    <hyperlink ref="B15" r:id="rId24"/>
-    <hyperlink ref="H15" r:id="rId25"/>
-    <hyperlink ref="B16" r:id="rId26"/>
-    <hyperlink ref="H16" r:id="rId27"/>
-    <hyperlink ref="B17" r:id="rId28"/>
-    <hyperlink ref="H17" r:id="rId29"/>
-    <hyperlink ref="B18" r:id="rId30"/>
-    <hyperlink ref="H18" r:id="rId31"/>
-    <hyperlink ref="B19" r:id="rId32"/>
-    <hyperlink ref="H19" r:id="rId33"/>
-    <hyperlink ref="B20" r:id="rId34"/>
-    <hyperlink ref="H20" r:id="rId35"/>
-    <hyperlink ref="B21" r:id="rId36"/>
-    <hyperlink ref="H21" r:id="rId37"/>
-    <hyperlink ref="B22" r:id="rId38"/>
-    <hyperlink ref="H22" r:id="rId39"/>
-    <hyperlink ref="B23" r:id="rId40"/>
-    <hyperlink ref="H23" r:id="rId41"/>
-    <hyperlink ref="B24" r:id="rId42"/>
-    <hyperlink ref="H24" r:id="rId43"/>
-    <hyperlink ref="B25" r:id="rId44"/>
-    <hyperlink ref="H25" r:id="rId45"/>
-    <hyperlink ref="B26" r:id="rId46"/>
-    <hyperlink ref="H26" r:id="rId47"/>
-    <hyperlink ref="B27" r:id="rId48"/>
-    <hyperlink ref="H27" r:id="rId49"/>
-    <hyperlink ref="B28" r:id="rId50"/>
-    <hyperlink ref="H28" r:id="rId51"/>
-    <hyperlink ref="B29" r:id="rId52"/>
-    <hyperlink ref="H29" r:id="rId53"/>
-    <hyperlink ref="B30" r:id="rId54"/>
-    <hyperlink ref="H30" r:id="rId55"/>
-    <hyperlink ref="B31" r:id="rId56"/>
-    <hyperlink ref="H31" r:id="rId57"/>
-    <hyperlink ref="B32" r:id="rId58"/>
-    <hyperlink ref="H32" r:id="rId59"/>
-    <hyperlink ref="B33" r:id="rId60"/>
-    <hyperlink ref="H33" r:id="rId61"/>
-    <hyperlink ref="B34" r:id="rId62"/>
-    <hyperlink ref="H34" r:id="rId63"/>
-    <hyperlink ref="B35" r:id="rId64"/>
-    <hyperlink ref="H35" r:id="rId65"/>
-    <hyperlink ref="B36" r:id="rId66"/>
-    <hyperlink ref="H36" r:id="rId67"/>
-    <hyperlink ref="B37" r:id="rId68"/>
-    <hyperlink ref="H37" r:id="rId69"/>
-    <hyperlink ref="B38" r:id="rId70"/>
-    <hyperlink ref="H38" r:id="rId71"/>
-    <hyperlink ref="B39" r:id="rId72"/>
-    <hyperlink ref="H39" r:id="rId73"/>
-    <hyperlink ref="B40" r:id="rId74"/>
-    <hyperlink ref="H40" r:id="rId75"/>
-    <hyperlink ref="B41" r:id="rId76"/>
-    <hyperlink ref="H41" r:id="rId77"/>
-    <hyperlink ref="B42" r:id="rId78"/>
-    <hyperlink ref="H42" r:id="rId79"/>
-    <hyperlink ref="B43" r:id="rId80"/>
-    <hyperlink ref="H43" r:id="rId81"/>
-    <hyperlink ref="B44" r:id="rId82"/>
-    <hyperlink ref="B45" r:id="rId83"/>
-    <hyperlink ref="B46" r:id="rId84"/>
-    <hyperlink ref="B47" r:id="rId85"/>
-    <hyperlink ref="B48" r:id="rId86"/>
-    <hyperlink ref="B49" r:id="rId87"/>
-    <hyperlink ref="B50" r:id="rId88"/>
-    <hyperlink ref="B51" r:id="rId89"/>
-    <hyperlink ref="B52" r:id="rId90"/>
-    <hyperlink ref="B53" r:id="rId91"/>
-    <hyperlink ref="B54" r:id="rId92"/>
-    <hyperlink ref="B55" r:id="rId93"/>
-    <hyperlink ref="H55" r:id="rId94"/>
-    <hyperlink ref="B56" r:id="rId95"/>
-    <hyperlink ref="B57" r:id="rId96"/>
-    <hyperlink ref="H57" r:id="rId97"/>
-    <hyperlink ref="B58" r:id="rId98"/>
-    <hyperlink ref="H58" r:id="rId99"/>
+    <hyperlink ref="J6" r:id="rId11"/>
+    <hyperlink ref="B7" r:id="rId12"/>
+    <hyperlink ref="H7" r:id="rId13"/>
+    <hyperlink ref="J7" r:id="rId14"/>
+    <hyperlink ref="B8" r:id="rId15"/>
+    <hyperlink ref="B9" r:id="rId16"/>
+    <hyperlink ref="B10" r:id="rId17"/>
+    <hyperlink ref="H10" r:id="rId18"/>
+    <hyperlink ref="B11" r:id="rId19"/>
+    <hyperlink ref="H11" r:id="rId20"/>
+    <hyperlink ref="J11" r:id="rId21"/>
+    <hyperlink ref="B12" r:id="rId22"/>
+    <hyperlink ref="H12" r:id="rId23"/>
+    <hyperlink ref="J12" r:id="rId24"/>
+    <hyperlink ref="B13" r:id="rId25"/>
+    <hyperlink ref="B14" r:id="rId26"/>
+    <hyperlink ref="H14" r:id="rId27"/>
+    <hyperlink ref="J14" r:id="rId28"/>
+    <hyperlink ref="K14" r:id="rId29"/>
+    <hyperlink ref="B15" r:id="rId30"/>
+    <hyperlink ref="H15" r:id="rId31"/>
+    <hyperlink ref="B16" r:id="rId32"/>
+    <hyperlink ref="H16" r:id="rId33"/>
+    <hyperlink ref="J16" r:id="rId34"/>
+    <hyperlink ref="B17" r:id="rId35"/>
+    <hyperlink ref="H17" r:id="rId36"/>
+    <hyperlink ref="J17" r:id="rId37"/>
+    <hyperlink ref="B18" r:id="rId38"/>
+    <hyperlink ref="H18" r:id="rId39"/>
+    <hyperlink ref="B19" r:id="rId40"/>
+    <hyperlink ref="H19" r:id="rId41"/>
+    <hyperlink ref="B20" r:id="rId42"/>
+    <hyperlink ref="H20" r:id="rId43"/>
+    <hyperlink ref="J20" r:id="rId44"/>
+    <hyperlink ref="B21" r:id="rId45"/>
+    <hyperlink ref="H21" r:id="rId46"/>
+    <hyperlink ref="B22" r:id="rId47"/>
+    <hyperlink ref="H22" r:id="rId48"/>
+    <hyperlink ref="B23" r:id="rId49"/>
+    <hyperlink ref="H23" r:id="rId50"/>
+    <hyperlink ref="B24" r:id="rId51"/>
+    <hyperlink ref="H24" r:id="rId52"/>
+    <hyperlink ref="B25" r:id="rId53"/>
+    <hyperlink ref="H25" r:id="rId54"/>
+    <hyperlink ref="B26" r:id="rId55"/>
+    <hyperlink ref="H26" r:id="rId56"/>
+    <hyperlink ref="B27" r:id="rId57"/>
+    <hyperlink ref="H27" r:id="rId58"/>
+    <hyperlink ref="B28" r:id="rId59"/>
+    <hyperlink ref="H28" r:id="rId60"/>
+    <hyperlink ref="J28" r:id="rId61"/>
+    <hyperlink ref="B29" r:id="rId62"/>
+    <hyperlink ref="H29" r:id="rId63"/>
+    <hyperlink ref="J29" r:id="rId64"/>
+    <hyperlink ref="B30" r:id="rId65"/>
+    <hyperlink ref="H30" r:id="rId66"/>
+    <hyperlink ref="J30" r:id="rId67"/>
+    <hyperlink ref="B31" r:id="rId68"/>
+    <hyperlink ref="H31" r:id="rId69"/>
+    <hyperlink ref="J31" r:id="rId70"/>
+    <hyperlink ref="B32" r:id="rId71"/>
+    <hyperlink ref="H32" r:id="rId72"/>
+    <hyperlink ref="J32" r:id="rId73"/>
+    <hyperlink ref="B33" r:id="rId74"/>
+    <hyperlink ref="H33" r:id="rId75"/>
+    <hyperlink ref="J33" r:id="rId76"/>
+    <hyperlink ref="B34" r:id="rId77"/>
+    <hyperlink ref="H34" r:id="rId78"/>
+    <hyperlink ref="J34" r:id="rId79"/>
+    <hyperlink ref="B35" r:id="rId80"/>
+    <hyperlink ref="H35" r:id="rId81"/>
+    <hyperlink ref="J35" r:id="rId82"/>
+    <hyperlink ref="B36" r:id="rId83"/>
+    <hyperlink ref="H36" r:id="rId84"/>
+    <hyperlink ref="J36" r:id="rId85"/>
+    <hyperlink ref="B37" r:id="rId86"/>
+    <hyperlink ref="H37" r:id="rId87"/>
+    <hyperlink ref="J37" r:id="rId88"/>
+    <hyperlink ref="B38" r:id="rId89"/>
+    <hyperlink ref="H38" r:id="rId90"/>
+    <hyperlink ref="J38" r:id="rId91"/>
+    <hyperlink ref="B39" r:id="rId92"/>
+    <hyperlink ref="H39" r:id="rId93"/>
+    <hyperlink ref="J39" r:id="rId94"/>
+    <hyperlink ref="B40" r:id="rId95"/>
+    <hyperlink ref="H40" r:id="rId96"/>
+    <hyperlink ref="J40" r:id="rId97"/>
+    <hyperlink ref="B41" r:id="rId98"/>
+    <hyperlink ref="H41" r:id="rId99"/>
+    <hyperlink ref="J41" r:id="rId100"/>
+    <hyperlink ref="K41" r:id="rId101"/>
+    <hyperlink ref="B42" r:id="rId102"/>
+    <hyperlink ref="H42" r:id="rId103"/>
+    <hyperlink ref="J42" r:id="rId104"/>
+    <hyperlink ref="K42" r:id="rId105"/>
+    <hyperlink ref="B43" r:id="rId106"/>
+    <hyperlink ref="H43" r:id="rId107"/>
+    <hyperlink ref="J43" r:id="rId108"/>
+    <hyperlink ref="K43" r:id="rId109"/>
+    <hyperlink ref="B44" r:id="rId110"/>
+    <hyperlink ref="B45" r:id="rId111"/>
+    <hyperlink ref="B46" r:id="rId112"/>
+    <hyperlink ref="B47" r:id="rId113"/>
+    <hyperlink ref="B48" r:id="rId114"/>
+    <hyperlink ref="B49" r:id="rId115"/>
+    <hyperlink ref="B50" r:id="rId116"/>
+    <hyperlink ref="B51" r:id="rId117"/>
+    <hyperlink ref="B52" r:id="rId118"/>
+    <hyperlink ref="B53" r:id="rId119"/>
+    <hyperlink ref="B54" r:id="rId120"/>
+    <hyperlink ref="B55" r:id="rId121"/>
+    <hyperlink ref="H55" r:id="rId122"/>
+    <hyperlink ref="J55" r:id="rId123"/>
+    <hyperlink ref="B56" r:id="rId124"/>
+    <hyperlink ref="B57" r:id="rId125"/>
+    <hyperlink ref="H57" r:id="rId126"/>
+    <hyperlink ref="J57" r:id="rId127"/>
+    <hyperlink ref="B58" r:id="rId128"/>
+    <hyperlink ref="H58" r:id="rId129"/>
+    <hyperlink ref="J58" r:id="rId130"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3178,7 +3373,7 @@
           <t>{'data': {'fileHash': 'ff4fcfa526706cee19763429ebeeac853e892021afba762e8612aa043f1a5cf99', 'code': 0, 'destFileName': '1', 'srcFileName': '1.xlsx', 'srcFileSize': '101888', 'destFileSize': '-1', 'convertType': 0, 'srcStoragePath': 'ff4fcfa526706cee19763429ebeeac853/1.xlsx', 'destStoragePath': '2022/10/05/a9492a109bab403fb5f37d28eb8687af/1', 'convertTime': '42', 'viewUrl': 'http://192.168.80.114:8092/fcsserver/view/preview/yLd-0pGxzcIQbP-mdUrZgGmknLEsHzyZtDOntRr8AhstfWZw9nGfJ_-A2_KjGrB6Qe8lYCqo14mNPxViRkFaTIJwjMzOkxuA8nLs3Bqt6Z5lxWVaiOSdFc4PqxgiY3mUkYNi2leDwYf-7ROvp7eaI0Y7LlfIsj8X-71_5MA-PwSH0hTV-X8pP3iWkT0Xi0HigwYmwVjvaMZ1qrCTz40Xs1spbmMzheO-WJOfFnN6j4vcAaREoWHQGEX7TzWdrBRKzgFooDzCInvCSXyTHG4F36-vxjvn_o3fqalfZQAIv8S56_QnnBlsNxrg6m6s7sWeGa06xfAlm63kdrRoWTuiFqVXAcZs6fZES6_uPja2n5TqZ-Bmii8FNEcszwwvMhXpCGLoiKB8obswGxpwb-3QYy80S41Ltmq58egzEXK--gstLv_9C3bdZQaOdtlYqmk6TLCX9idHeN9BvE2yX3iqp59sfSuN9bDMGUOdz_oMaLc0F5LSt0TgW63xOpacClW9MYmME0JtNcaX7yUp-KrEB7V9WYZwe9xcwfbZSECucKFPOh6tKHBL5Q==/'}, 'message': '操作成功', 'errorcode': 0}</t>
         </is>
       </c>
-      <c r="G2" s="11" t="inlineStr">
+      <c r="G2" s="10" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
@@ -3221,7 +3416,7 @@
           <t>{'data': {'fileHash': 'ff4fcfa526706cee19763429ebeeac8531937b54c23dfe6eae890e621fd21179c', 'code': 0, 'destFileName': '1', 'srcFileName': '1.xlsx', 'srcFileSize': '101888', 'destFileSize': '-1', 'convertType': 0, 'srcStoragePath': 'ff4fcfa526706cee19763429ebeeac853/1.xlsx', 'destStoragePath': '2022/10/05/892764752cc244bd9895aeb1bb7a97de/1', 'convertTime': '42', 'viewUrl': 'http://192.168.80.114:8092/fcsserver/view/preview/r-e_8PMPZQu5ugmuLDaT23aZGJ9LxL_xbPP0V3XJQ051Jrx0n9lu8nezcSytu3IxdiM5EnNdn9Asy3e05vPwPhHrE3v-1cv_SoV5jKs46vKharIjSg274wqy62__az_lWUuUIyRP2kFpD_Sc4Of5mdzW-dLwrio8ADCau3K-T4twfD-mCiixhvYl1Xje16HSEOPiG2h79yHQ8QJ6mBuQ4Ndoix7jSSfxB-rShVnbyZM5GTTAUahJ-dKVhyaceYsLCoZY1G11uWHvLLhi9tsBFSwxQtrueq9GaVbLmrKQAxD5BLXA3z7x8fj-Oh2-c22tkOB0SIENN3jH-mPGPCrLLeC85xRS8fGiE8pgThTG9Vi3nXejtJ2WVGwRbTGIoY8bIL-Oy5RlVqlHwMnAp7LB4uM58Ihvd2vZjP2CUZgwIusgSQ3REG3iXKIu1axqTgsW9Jjn-zUvwHhjqm7JnmqPLluYvMrv5w9nt27piu2VT2FHGfQR3arPXYnWB68pwWdvMAdYTl7ggYx6IywYULtTSdMuTrZtQu4QBsZw9XbMzlf_icsInz8QrA==/'}, 'message': '操作成功', 'errorcode': 0}</t>
         </is>
       </c>
-      <c r="G3" s="11" t="inlineStr">
+      <c r="G3" s="10" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
@@ -4683,7 +4878,7 @@
           <t>{'data': {'fileHash': 'ff4fcfa526706cee19763429ebeeac853ae49329d858dcfa6ffc7288abc4d5c22', 'code': 26, 'destFileName': '', 'srcFileName': '', 'srcFileSize': '101888', 'destFileSize': '0', 'convertType': 61, 'srcStoragePath': '', 'destStoragePath': '', 'convertTime': '0'}, 'message': '图片水印不存在或文件有误,请检查', 'errorcode': 26}</t>
         </is>
       </c>
-      <c r="G37" s="14" t="inlineStr">
+      <c r="G37" s="12" t="inlineStr">
         <is>
           <t>失败</t>
         </is>
@@ -4721,7 +4916,7 @@
           <t>{'data': {'fileHash': 'ff4fcfa526706cee19763429ebeeac853ae49329d858dcfa6ffc7288abc4d5c22', 'code': 26, 'destFileName': '', 'srcFileName': '', 'srcFileSize': '101888', 'destFileSize': '0', 'convertType': 61, 'srcStoragePath': '', 'destStoragePath': '', 'convertTime': '2'}, 'message': '图片水印不存在或文件有误,请检查', 'errorcode': 26}</t>
         </is>
       </c>
-      <c r="G38" s="14" t="inlineStr">
+      <c r="G38" s="12" t="inlineStr">
         <is>
           <t>失败</t>
         </is>
@@ -4759,7 +4954,7 @@
           <t>{'data': {'fileHash': 'ff4fcfa526706cee19763429ebeeac853ae49329d858dcfa6ffc7288abc4d5c22', 'code': 26, 'destFileName': '', 'srcFileName': '', 'srcFileSize': '101888', 'destFileSize': '0', 'convertType': 61, 'srcStoragePath': '', 'destStoragePath': '', 'convertTime': '2'}, 'message': '图片水印不存在或文件有误,请检查', 'errorcode': 26}</t>
         </is>
       </c>
-      <c r="G39" s="14" t="inlineStr">
+      <c r="G39" s="12" t="inlineStr">
         <is>
           <t>失败</t>
         </is>
@@ -4797,7 +4992,7 @@
           <t>{'data': {'fileHash': 'ff4fcfa526706cee19763429ebeeac853ae49329d858dcfa6ffc7288abc4d5c22', 'code': 26, 'destFileName': '', 'srcFileName': '', 'srcFileSize': '101888', 'destFileSize': '0', 'convertType': 61, 'srcStoragePath': '', 'destStoragePath': '', 'convertTime': '0'}, 'message': '图片水印不存在或文件有误,请检查', 'errorcode': 26}</t>
         </is>
       </c>
-      <c r="G40" s="14" t="inlineStr">
+      <c r="G40" s="12" t="inlineStr">
         <is>
           <t>失败</t>
         </is>
@@ -4835,7 +5030,7 @@
           <t>{'data': {'fileHash': 'ff4fcfa526706cee19763429ebeeac853ae49329d858dcfa6ffc7288abc4d5c22', 'code': 26, 'destFileName': '', 'srcFileName': '', 'srcFileSize': '101888', 'destFileSize': '0', 'convertType': 61, 'srcStoragePath': '', 'destStoragePath': '', 'convertTime': '2'}, 'message': '图片水印不存在或文件有误,请检查', 'errorcode': 26}</t>
         </is>
       </c>
-      <c r="G41" s="14" t="inlineStr">
+      <c r="G41" s="12" t="inlineStr">
         <is>
           <t>失败</t>
         </is>
@@ -4873,7 +5068,7 @@
           <t>{'data': {'fileHash': 'ff4fcfa526706cee19763429ebeeac853ae49329d858dcfa6ffc7288abc4d5c22', 'code': 26, 'destFileName': '', 'srcFileName': '', 'srcFileSize': '101888', 'destFileSize': '0', 'convertType': 61, 'srcStoragePath': '', 'destStoragePath': '', 'convertTime': '1'}, 'message': '图片水印不存在或文件有误,请检查', 'errorcode': 26}</t>
         </is>
       </c>
-      <c r="G42" s="14" t="inlineStr">
+      <c r="G42" s="12" t="inlineStr">
         <is>
           <t>失败</t>
         </is>
@@ -4911,7 +5106,7 @@
           <t>{'data': {'fileHash': 'ff4fcfa526706cee19763429ebeeac853ae49329d858dcfa6ffc7288abc4d5c22', 'code': 26, 'destFileName': '', 'srcFileName': '', 'srcFileSize': '101888', 'destFileSize': '0', 'convertType': 61, 'srcStoragePath': '', 'destStoragePath': '', 'convertTime': '2'}, 'message': '图片水印不存在或文件有误,请检查', 'errorcode': 26}</t>
         </is>
       </c>
-      <c r="G43" s="14" t="inlineStr">
+      <c r="G43" s="12" t="inlineStr">
         <is>
           <t>失败</t>
         </is>
@@ -4949,7 +5144,7 @@
           <t>{'data': {'fileHash': 'ff4fcfa526706cee19763429ebeeac853ae49329d858dcfa6ffc7288abc4d5c22', 'code': 26, 'destFileName': '', 'srcFileName': '', 'srcFileSize': '101888', 'destFileSize': '0', 'convertType': 61, 'srcStoragePath': '', 'destStoragePath': '', 'convertTime': '2'}, 'message': '图片水印不存在或文件有误,请检查', 'errorcode': 26}</t>
         </is>
       </c>
-      <c r="G44" s="14" t="inlineStr">
+      <c r="G44" s="12" t="inlineStr">
         <is>
           <t>失败</t>
         </is>
@@ -4987,7 +5182,7 @@
           <t>{'data': {'fileHash': 'ff4fcfa526706cee19763429ebeeac853ae49329d858dcfa6ffc7288abc4d5c22', 'code': 26, 'destFileName': '', 'srcFileName': '', 'srcFileSize': '101888', 'destFileSize': '0', 'convertType': 61, 'srcStoragePath': '', 'destStoragePath': '', 'convertTime': '0'}, 'message': '图片水印不存在或文件有误,请检查', 'errorcode': 26}</t>
         </is>
       </c>
-      <c r="G45" s="14" t="inlineStr">
+      <c r="G45" s="12" t="inlineStr">
         <is>
           <t>失败</t>
         </is>
@@ -5025,7 +5220,7 @@
           <t>{'data': {'fileHash': 'ff4fcfa526706cee19763429ebeeac853ae49329d858dcfa6ffc7288abc4d5c22', 'code': 26, 'destFileName': '', 'srcFileName': '', 'srcFileSize': '101888', 'destFileSize': '0', 'convertType': 61, 'srcStoragePath': '', 'destStoragePath': '', 'convertTime': '2'}, 'message': '图片水印不存在或文件有误,请检查', 'errorcode': 26}</t>
         </is>
       </c>
-      <c r="G46" s="14" t="inlineStr">
+      <c r="G46" s="12" t="inlineStr">
         <is>
           <t>失败</t>
         </is>
@@ -5063,7 +5258,7 @@
           <t>{'data': {'fileHash': 'ff4fcfa526706cee19763429ebeeac853ae49329d858dcfa6ffc7288abc4d5c22', 'code': 26, 'destFileName': '', 'srcFileName': '', 'srcFileSize': '101888', 'destFileSize': '0', 'convertType': 61, 'srcStoragePath': '', 'destStoragePath': '', 'convertTime': '0'}, 'message': '图片水印不存在或文件有误,请检查', 'errorcode': 26}</t>
         </is>
       </c>
-      <c r="G47" s="14" t="inlineStr">
+      <c r="G47" s="12" t="inlineStr">
         <is>
           <t>失败</t>
         </is>
@@ -5144,7 +5339,7 @@
           <t>{'data': {'fileHash': 'ff4fcfa526706cee19763429ebeeac853ae49329d858dcfa6ffc7288abc4d5c22', 'code': 26, 'destFileName': '', 'srcFileName': '', 'srcFileSize': '101888', 'destFileSize': '0', 'convertType': 61, 'srcStoragePath': '', 'destStoragePath': '', 'convertTime': '1'}, 'message': '图片水印不存在或文件有误,请检查', 'errorcode': 26}</t>
         </is>
       </c>
-      <c r="G49" s="14" t="inlineStr">
+      <c r="G49" s="12" t="inlineStr">
         <is>
           <t>失败</t>
         </is>
@@ -6352,7 +6547,7 @@
           <t>Cannot convert FileNotFoundError(2, 'No such file or directory') to Excel</t>
         </is>
       </c>
-      <c r="G23" s="15" t="inlineStr">
+      <c r="G23" s="13" t="inlineStr">
         <is>
           <t>格式错误</t>
         </is>
@@ -6390,7 +6585,7 @@
           <t>Cannot convert FileNotFoundError(2, 'No such file or directory') to Excel</t>
         </is>
       </c>
-      <c r="G24" s="15" t="inlineStr">
+      <c r="G24" s="13" t="inlineStr">
         <is>
           <t>格式错误</t>
         </is>
@@ -7116,7 +7311,7 @@
           <t>{'data': {'fileHash': 'f2afa0e0568ddeac310e67b43d71951a8ae49329d858dcfa6ffc7288abc4d5c22', 'code': 26, 'destFileName': '', 'srcFileName': '', 'srcFileSize': '103424', 'destFileSize': '0', 'convertType': 0, 'srcStoragePath': '', 'destStoragePath': '', 'convertTime': '2'}, 'message': '图片水印不存在或文件有误,请检查', 'errorcode': 26}</t>
         </is>
       </c>
-      <c r="G41" s="14" t="inlineStr">
+      <c r="G41" s="12" t="inlineStr">
         <is>
           <t>失败</t>
         </is>
@@ -7154,7 +7349,7 @@
           <t>{'data': {'fileHash': 'f2afa0e0568ddeac310e67b43d71951a8ae49329d858dcfa6ffc7288abc4d5c22', 'code': 26, 'destFileName': '', 'srcFileName': '', 'srcFileSize': '103424', 'destFileSize': '0', 'convertType': 0, 'srcStoragePath': '', 'destStoragePath': '', 'convertTime': '2'}, 'message': '图片水印不存在或文件有误,请检查', 'errorcode': 26}</t>
         </is>
       </c>
-      <c r="G42" s="14" t="inlineStr">
+      <c r="G42" s="12" t="inlineStr">
         <is>
           <t>失败</t>
         </is>
@@ -7192,7 +7387,7 @@
           <t>{'data': {'fileHash': 'f2afa0e0568ddeac310e67b43d71951a8ae49329d858dcfa6ffc7288abc4d5c22', 'code': 26, 'destFileName': '', 'srcFileName': '', 'srcFileSize': '103424', 'destFileSize': '0', 'convertType': 0, 'srcStoragePath': '', 'destStoragePath': '', 'convertTime': '2'}, 'message': '图片水印不存在或文件有误,请检查', 'errorcode': 26}</t>
         </is>
       </c>
-      <c r="G43" s="14" t="inlineStr">
+      <c r="G43" s="12" t="inlineStr">
         <is>
           <t>失败</t>
         </is>
@@ -7230,7 +7425,7 @@
           <t>{'data': {'fileHash': 'f2afa0e0568ddeac310e67b43d71951a8ae49329d858dcfa6ffc7288abc4d5c22', 'code': 26, 'destFileName': '', 'srcFileName': '', 'srcFileSize': '103424', 'destFileSize': '0', 'convertType': 0, 'srcStoragePath': '', 'destStoragePath': '', 'convertTime': '2'}, 'message': '图片水印不存在或文件有误,请检查', 'errorcode': 26}</t>
         </is>
       </c>
-      <c r="G44" s="14" t="inlineStr">
+      <c r="G44" s="12" t="inlineStr">
         <is>
           <t>失败</t>
         </is>
@@ -7268,7 +7463,7 @@
           <t>{'data': {'fileHash': 'f2afa0e0568ddeac310e67b43d71951a8ae49329d858dcfa6ffc7288abc4d5c22', 'code': 26, 'destFileName': '', 'srcFileName': '', 'srcFileSize': '103424', 'destFileSize': '0', 'convertType': 0, 'srcStoragePath': '', 'destStoragePath': '', 'convertTime': '2'}, 'message': '图片水印不存在或文件有误,请检查', 'errorcode': 26}</t>
         </is>
       </c>
-      <c r="G45" s="14" t="inlineStr">
+      <c r="G45" s="12" t="inlineStr">
         <is>
           <t>失败</t>
         </is>
@@ -7306,7 +7501,7 @@
           <t>{'data': {'fileHash': 'f2afa0e0568ddeac310e67b43d71951a8ae49329d858dcfa6ffc7288abc4d5c22', 'code': 26, 'destFileName': '', 'srcFileName': '', 'srcFileSize': '103424', 'destFileSize': '0', 'convertType': 0, 'srcStoragePath': '', 'destStoragePath': '', 'convertTime': '2'}, 'message': '图片水印不存在或文件有误,请检查', 'errorcode': 26}</t>
         </is>
       </c>
-      <c r="G46" s="14" t="inlineStr">
+      <c r="G46" s="12" t="inlineStr">
         <is>
           <t>失败</t>
         </is>
@@ -7344,7 +7539,7 @@
           <t>{'data': {'fileHash': 'f2afa0e0568ddeac310e67b43d71951a8ae49329d858dcfa6ffc7288abc4d5c22', 'code': 26, 'destFileName': '', 'srcFileName': '', 'srcFileSize': '103424', 'destFileSize': '0', 'convertType': 0, 'srcStoragePath': '', 'destStoragePath': '', 'convertTime': '2'}, 'message': '图片水印不存在或文件有误,请检查', 'errorcode': 26}</t>
         </is>
       </c>
-      <c r="G47" s="14" t="inlineStr">
+      <c r="G47" s="12" t="inlineStr">
         <is>
           <t>失败</t>
         </is>
@@ -7382,7 +7577,7 @@
           <t>{'data': {'fileHash': 'f2afa0e0568ddeac310e67b43d71951a8ae49329d858dcfa6ffc7288abc4d5c22', 'code': 26, 'destFileName': '', 'srcFileName': '', 'srcFileSize': '103424', 'destFileSize': '0', 'convertType': 0, 'srcStoragePath': '', 'destStoragePath': '', 'convertTime': '2'}, 'message': '图片水印不存在或文件有误,请检查', 'errorcode': 26}</t>
         </is>
       </c>
-      <c r="G48" s="14" t="inlineStr">
+      <c r="G48" s="12" t="inlineStr">
         <is>
           <t>失败</t>
         </is>
@@ -7420,7 +7615,7 @@
           <t>{'data': {'fileHash': 'f2afa0e0568ddeac310e67b43d71951a8ae49329d858dcfa6ffc7288abc4d5c22', 'code': 26, 'destFileName': '', 'srcFileName': '', 'srcFileSize': '103424', 'destFileSize': '0', 'convertType': 0, 'srcStoragePath': '', 'destStoragePath': '', 'convertTime': '2'}, 'message': '图片水印不存在或文件有误,请检查', 'errorcode': 26}</t>
         </is>
       </c>
-      <c r="G49" s="14" t="inlineStr">
+      <c r="G49" s="12" t="inlineStr">
         <is>
           <t>失败</t>
         </is>
@@ -7458,7 +7653,7 @@
           <t>{'data': {'fileHash': 'f2afa0e0568ddeac310e67b43d71951a8ae49329d858dcfa6ffc7288abc4d5c22', 'code': 26, 'destFileName': '', 'srcFileName': '', 'srcFileSize': '103424', 'destFileSize': '0', 'convertType': 0, 'srcStoragePath': '', 'destStoragePath': '', 'convertTime': '4'}, 'message': '图片水印不存在或文件有误,请检查', 'errorcode': 26}</t>
         </is>
       </c>
-      <c r="G50" s="14" t="inlineStr">
+      <c r="G50" s="12" t="inlineStr">
         <is>
           <t>失败</t>
         </is>
@@ -7496,7 +7691,7 @@
           <t>{'data': {'fileHash': 'f2afa0e0568ddeac310e67b43d71951a8ae49329d858dcfa6ffc7288abc4d5c22', 'code': 26, 'destFileName': '', 'srcFileName': '', 'srcFileSize': '103424', 'destFileSize': '0', 'convertType': 0, 'srcStoragePath': '', 'destStoragePath': '', 'convertTime': '2'}, 'message': '图片水印不存在或文件有误,请检查', 'errorcode': 26}</t>
         </is>
       </c>
-      <c r="G51" s="14" t="inlineStr">
+      <c r="G51" s="12" t="inlineStr">
         <is>
           <t>失败</t>
         </is>
@@ -7577,7 +7772,7 @@
           <t>{'data': {'fileHash': 'f2afa0e0568ddeac310e67b43d71951a8ae49329d858dcfa6ffc7288abc4d5c22', 'code': 26, 'destFileName': '', 'srcFileName': '', 'srcFileSize': '103424', 'destFileSize': '0', 'convertType': 0, 'srcStoragePath': '', 'destStoragePath': '', 'convertTime': '2'}, 'message': '图片水印不存在或文件有误,请检查', 'errorcode': 26}</t>
         </is>
       </c>
-      <c r="G53" s="14" t="inlineStr">
+      <c r="G53" s="12" t="inlineStr">
         <is>
           <t>失败</t>
         </is>
@@ -8361,7 +8556,7 @@
           <t>{'data': {'fileHash': 'fcb5c189d40f4b914460b84b208689591b954cebee35be8932a784e1d369b7c1f', 'code': 4, 'destFileName': '', 'srcFileName': '', 'srcFileSize': '16384', 'destFileSize': '0', 'convertType': 61, 'srcStoragePath': '', 'destStoragePath': '', 'convertTime': '861'}, 'message': '转换的文档为加密文档或密码有误，请重新添加password参数进行转换', 'errorcode': 4}</t>
         </is>
       </c>
-      <c r="G13" s="14" t="inlineStr">
+      <c r="G13" s="12" t="inlineStr">
         <is>
           <t>失败</t>
         </is>
@@ -9689,7 +9884,7 @@
           <t>{'data': {'fileHash': 'f3878c385d91824cdd4eec4a68cd1e14a3099842f8982472b55f42eafe7b9440b', 'code': 26, 'destFileName': '', 'srcFileName': '', 'srcFileSize': '14481', 'destFileSize': '0', 'convertType': 61, 'srcStoragePath': '', 'destStoragePath': '', 'convertTime': '0'}, 'message': '图片水印不存在或文件有误,请检查', 'errorcode': 26}</t>
         </is>
       </c>
-      <c r="G44" s="14" t="inlineStr">
+      <c r="G44" s="12" t="inlineStr">
         <is>
           <t>失败</t>
         </is>
@@ -9727,7 +9922,7 @@
           <t>{'data': {'fileHash': 'f3878c385d91824cdd4eec4a68cd1e14a3099842f8982472b55f42eafe7b9440b', 'code': 26, 'destFileName': '', 'srcFileName': '', 'srcFileSize': '14481', 'destFileSize': '0', 'convertType': 61, 'srcStoragePath': '', 'destStoragePath': '', 'convertTime': '0'}, 'message': '图片水印不存在或文件有误,请检查', 'errorcode': 26}</t>
         </is>
       </c>
-      <c r="G45" s="14" t="inlineStr">
+      <c r="G45" s="12" t="inlineStr">
         <is>
           <t>失败</t>
         </is>
@@ -9765,7 +9960,7 @@
           <t>{'data': {'fileHash': 'f3878c385d91824cdd4eec4a68cd1e14a3099842f8982472b55f42eafe7b9440b', 'code': 26, 'destFileName': '', 'srcFileName': '', 'srcFileSize': '14481', 'destFileSize': '0', 'convertType': 61, 'srcStoragePath': '', 'destStoragePath': '', 'convertTime': '1'}, 'message': '图片水印不存在或文件有误,请检查', 'errorcode': 26}</t>
         </is>
       </c>
-      <c r="G46" s="14" t="inlineStr">
+      <c r="G46" s="12" t="inlineStr">
         <is>
           <t>失败</t>
         </is>
@@ -9803,7 +9998,7 @@
           <t>{'data': {'fileHash': 'f3878c385d91824cdd4eec4a68cd1e14a3099842f8982472b55f42eafe7b9440b', 'code': 26, 'destFileName': '', 'srcFileName': '', 'srcFileSize': '14481', 'destFileSize': '0', 'convertType': 61, 'srcStoragePath': '', 'destStoragePath': '', 'convertTime': '0'}, 'message': '图片水印不存在或文件有误,请检查', 'errorcode': 26}</t>
         </is>
       </c>
-      <c r="G47" s="14" t="inlineStr">
+      <c r="G47" s="12" t="inlineStr">
         <is>
           <t>失败</t>
         </is>
@@ -9841,7 +10036,7 @@
           <t>{'data': {'fileHash': 'f3878c385d91824cdd4eec4a68cd1e14a3099842f8982472b55f42eafe7b9440b', 'code': 26, 'destFileName': '', 'srcFileName': '', 'srcFileSize': '14481', 'destFileSize': '0', 'convertType': 61, 'srcStoragePath': '', 'destStoragePath': '', 'convertTime': '0'}, 'message': '图片水印不存在或文件有误,请检查', 'errorcode': 26}</t>
         </is>
       </c>
-      <c r="G48" s="14" t="inlineStr">
+      <c r="G48" s="12" t="inlineStr">
         <is>
           <t>失败</t>
         </is>
@@ -9879,7 +10074,7 @@
           <t>{'data': {'fileHash': 'f3878c385d91824cdd4eec4a68cd1e14a3099842f8982472b55f42eafe7b9440b', 'code': 26, 'destFileName': '', 'srcFileName': '', 'srcFileSize': '14481', 'destFileSize': '0', 'convertType': 61, 'srcStoragePath': '', 'destStoragePath': '', 'convertTime': '1'}, 'message': '图片水印不存在或文件有误,请检查', 'errorcode': 26}</t>
         </is>
       </c>
-      <c r="G49" s="14" t="inlineStr">
+      <c r="G49" s="12" t="inlineStr">
         <is>
           <t>失败</t>
         </is>
@@ -9917,7 +10112,7 @@
           <t>{'data': {'fileHash': 'f3878c385d91824cdd4eec4a68cd1e14a3099842f8982472b55f42eafe7b9440b', 'code': 26, 'destFileName': '', 'srcFileName': '', 'srcFileSize': '14481', 'destFileSize': '0', 'convertType': 61, 'srcStoragePath': '', 'destStoragePath': '', 'convertTime': '1'}, 'message': '图片水印不存在或文件有误,请检查', 'errorcode': 26}</t>
         </is>
       </c>
-      <c r="G50" s="14" t="inlineStr">
+      <c r="G50" s="12" t="inlineStr">
         <is>
           <t>失败</t>
         </is>
@@ -9955,7 +10150,7 @@
           <t>{'data': {'fileHash': 'f3878c385d91824cdd4eec4a68cd1e14a3099842f8982472b55f42eafe7b9440b', 'code': 26, 'destFileName': '', 'srcFileName': '', 'srcFileSize': '14481', 'destFileSize': '0', 'convertType': 61, 'srcStoragePath': '', 'destStoragePath': '', 'convertTime': '1'}, 'message': '图片水印不存在或文件有误,请检查', 'errorcode': 26}</t>
         </is>
       </c>
-      <c r="G51" s="14" t="inlineStr">
+      <c r="G51" s="12" t="inlineStr">
         <is>
           <t>失败</t>
         </is>
@@ -9993,7 +10188,7 @@
           <t>{'data': {'fileHash': 'f3878c385d91824cdd4eec4a68cd1e14a3099842f8982472b55f42eafe7b9440b', 'code': 26, 'destFileName': '', 'srcFileName': '', 'srcFileSize': '14481', 'destFileSize': '0', 'convertType': 61, 'srcStoragePath': '', 'destStoragePath': '', 'convertTime': '1'}, 'message': '图片水印不存在或文件有误,请检查', 'errorcode': 26}</t>
         </is>
       </c>
-      <c r="G52" s="14" t="inlineStr">
+      <c r="G52" s="12" t="inlineStr">
         <is>
           <t>失败</t>
         </is>
@@ -10031,7 +10226,7 @@
           <t>{'data': {'fileHash': 'f3878c385d91824cdd4eec4a68cd1e14a3099842f8982472b55f42eafe7b9440b', 'code': 26, 'destFileName': '', 'srcFileName': '', 'srcFileSize': '14481', 'destFileSize': '0', 'convertType': 61, 'srcStoragePath': '', 'destStoragePath': '', 'convertTime': '0'}, 'message': '图片水印不存在或文件有误,请检查', 'errorcode': 26}</t>
         </is>
       </c>
-      <c r="G53" s="14" t="inlineStr">
+      <c r="G53" s="12" t="inlineStr">
         <is>
           <t>失败</t>
         </is>
@@ -10069,7 +10264,7 @@
           <t>{'data': {'fileHash': 'f3878c385d91824cdd4eec4a68cd1e14a3099842f8982472b55f42eafe7b9440b', 'code': 26, 'destFileName': '', 'srcFileName': '', 'srcFileSize': '14481', 'destFileSize': '0', 'convertType': 61, 'srcStoragePath': '', 'destStoragePath': '', 'convertTime': '1'}, 'message': '图片水印不存在或文件有误,请检查', 'errorcode': 26}</t>
         </is>
       </c>
-      <c r="G54" s="14" t="inlineStr">
+      <c r="G54" s="12" t="inlineStr">
         <is>
           <t>失败</t>
         </is>
@@ -10150,7 +10345,7 @@
           <t>{'data': {'fileHash': 'f3878c385d91824cdd4eec4a68cd1e14a3099842f8982472b55f42eafe7b9440b', 'code': 26, 'destFileName': '', 'srcFileName': '', 'srcFileSize': '14481', 'destFileSize': '0', 'convertType': 61, 'srcStoragePath': '', 'destStoragePath': '', 'convertTime': '0'}, 'message': '图片水印不存在或文件有误,请检查', 'errorcode': 26}</t>
         </is>
       </c>
-      <c r="G56" s="14" t="inlineStr">
+      <c r="G56" s="12" t="inlineStr">
         <is>
           <t>失败</t>
         </is>
@@ -11973,7 +12168,7 @@
           <t>{'data': {'fileHash': 'ff4fcfa526706cee19763429ebeeac8533099842f8982472b55f42eafe7b9440b', 'code': 26, 'destFileName': '', 'srcFileName': '', 'srcFileSize': '101888', 'destFileSize': '0', 'convertType': 61, 'srcStoragePath': '', 'destStoragePath': '', 'convertTime': '0'}, 'message': '图片水印不存在或文件有误,请检查', 'errorcode': 26}</t>
         </is>
       </c>
-      <c r="G37" s="14" t="inlineStr">
+      <c r="G37" s="12" t="inlineStr">
         <is>
           <t>失败</t>
         </is>
@@ -12011,7 +12206,7 @@
           <t>{'data': {'fileHash': 'ff4fcfa526706cee19763429ebeeac8533099842f8982472b55f42eafe7b9440b', 'code': 26, 'destFileName': '', 'srcFileName': '', 'srcFileSize': '101888', 'destFileSize': '0', 'convertType': 61, 'srcStoragePath': '', 'destStoragePath': '', 'convertTime': '0'}, 'message': '图片水印不存在或文件有误,请检查', 'errorcode': 26}</t>
         </is>
       </c>
-      <c r="G38" s="14" t="inlineStr">
+      <c r="G38" s="12" t="inlineStr">
         <is>
           <t>失败</t>
         </is>
@@ -12049,7 +12244,7 @@
           <t>{'data': {'fileHash': 'ff4fcfa526706cee19763429ebeeac8533099842f8982472b55f42eafe7b9440b', 'code': 26, 'destFileName': '', 'srcFileName': '', 'srcFileSize': '101888', 'destFileSize': '0', 'convertType': 61, 'srcStoragePath': '', 'destStoragePath': '', 'convertTime': '0'}, 'message': '图片水印不存在或文件有误,请检查', 'errorcode': 26}</t>
         </is>
       </c>
-      <c r="G39" s="14" t="inlineStr">
+      <c r="G39" s="12" t="inlineStr">
         <is>
           <t>失败</t>
         </is>
@@ -12087,7 +12282,7 @@
           <t>{'data': {'fileHash': 'ff4fcfa526706cee19763429ebeeac8533099842f8982472b55f42eafe7b9440b', 'code': 26, 'destFileName': '', 'srcFileName': '', 'srcFileSize': '101888', 'destFileSize': '0', 'convertType': 61, 'srcStoragePath': '', 'destStoragePath': '', 'convertTime': '0'}, 'message': '图片水印不存在或文件有误,请检查', 'errorcode': 26}</t>
         </is>
       </c>
-      <c r="G40" s="14" t="inlineStr">
+      <c r="G40" s="12" t="inlineStr">
         <is>
           <t>失败</t>
         </is>
@@ -12125,7 +12320,7 @@
           <t>{'data': {'fileHash': 'ff4fcfa526706cee19763429ebeeac8533099842f8982472b55f42eafe7b9440b', 'code': 26, 'destFileName': '', 'srcFileName': '', 'srcFileSize': '101888', 'destFileSize': '0', 'convertType': 61, 'srcStoragePath': '', 'destStoragePath': '', 'convertTime': '1'}, 'message': '图片水印不存在或文件有误,请检查', 'errorcode': 26}</t>
         </is>
       </c>
-      <c r="G41" s="14" t="inlineStr">
+      <c r="G41" s="12" t="inlineStr">
         <is>
           <t>失败</t>
         </is>
@@ -12163,7 +12358,7 @@
           <t>{'data': {'fileHash': 'ff4fcfa526706cee19763429ebeeac8533099842f8982472b55f42eafe7b9440b', 'code': 26, 'destFileName': '', 'srcFileName': '', 'srcFileSize': '101888', 'destFileSize': '0', 'convertType': 61, 'srcStoragePath': '', 'destStoragePath': '', 'convertTime': '2'}, 'message': '图片水印不存在或文件有误,请检查', 'errorcode': 26}</t>
         </is>
       </c>
-      <c r="G42" s="14" t="inlineStr">
+      <c r="G42" s="12" t="inlineStr">
         <is>
           <t>失败</t>
         </is>
@@ -12201,7 +12396,7 @@
           <t>{'data': {'fileHash': 'ff4fcfa526706cee19763429ebeeac8533099842f8982472b55f42eafe7b9440b', 'code': 26, 'destFileName': '', 'srcFileName': '', 'srcFileSize': '101888', 'destFileSize': '0', 'convertType': 61, 'srcStoragePath': '', 'destStoragePath': '', 'convertTime': '0'}, 'message': '图片水印不存在或文件有误,请检查', 'errorcode': 26}</t>
         </is>
       </c>
-      <c r="G43" s="14" t="inlineStr">
+      <c r="G43" s="12" t="inlineStr">
         <is>
           <t>失败</t>
         </is>
@@ -12239,7 +12434,7 @@
           <t>{'data': {'fileHash': 'ff4fcfa526706cee19763429ebeeac8533099842f8982472b55f42eafe7b9440b', 'code': 26, 'destFileName': '', 'srcFileName': '', 'srcFileSize': '101888', 'destFileSize': '0', 'convertType': 61, 'srcStoragePath': '', 'destStoragePath': '', 'convertTime': '0'}, 'message': '图片水印不存在或文件有误,请检查', 'errorcode': 26}</t>
         </is>
       </c>
-      <c r="G44" s="14" t="inlineStr">
+      <c r="G44" s="12" t="inlineStr">
         <is>
           <t>失败</t>
         </is>
@@ -12277,7 +12472,7 @@
           <t>{'data': {'fileHash': 'ff4fcfa526706cee19763429ebeeac8533099842f8982472b55f42eafe7b9440b', 'code': 26, 'destFileName': '', 'srcFileName': '', 'srcFileSize': '101888', 'destFileSize': '0', 'convertType': 61, 'srcStoragePath': '', 'destStoragePath': '', 'convertTime': '0'}, 'message': '图片水印不存在或文件有误,请检查', 'errorcode': 26}</t>
         </is>
       </c>
-      <c r="G45" s="14" t="inlineStr">
+      <c r="G45" s="12" t="inlineStr">
         <is>
           <t>失败</t>
         </is>
@@ -12315,7 +12510,7 @@
           <t>{'data': {'fileHash': 'ff4fcfa526706cee19763429ebeeac8533099842f8982472b55f42eafe7b9440b', 'code': 26, 'destFileName': '', 'srcFileName': '', 'srcFileSize': '101888', 'destFileSize': '0', 'convertType': 61, 'srcStoragePath': '', 'destStoragePath': '', 'convertTime': '2'}, 'message': '图片水印不存在或文件有误,请检查', 'errorcode': 26}</t>
         </is>
       </c>
-      <c r="G46" s="14" t="inlineStr">
+      <c r="G46" s="12" t="inlineStr">
         <is>
           <t>失败</t>
         </is>
@@ -12353,7 +12548,7 @@
           <t>{'data': {'fileHash': 'ff4fcfa526706cee19763429ebeeac8533099842f8982472b55f42eafe7b9440b', 'code': 26, 'destFileName': '', 'srcFileName': '', 'srcFileSize': '101888', 'destFileSize': '0', 'convertType': 61, 'srcStoragePath': '', 'destStoragePath': '', 'convertTime': '0'}, 'message': '图片水印不存在或文件有误,请检查', 'errorcode': 26}</t>
         </is>
       </c>
-      <c r="G47" s="14" t="inlineStr">
+      <c r="G47" s="12" t="inlineStr">
         <is>
           <t>失败</t>
         </is>
@@ -12434,7 +12629,7 @@
           <t>{'data': {'fileHash': 'ff4fcfa526706cee19763429ebeeac8533099842f8982472b55f42eafe7b9440b', 'code': 26, 'destFileName': '', 'srcFileName': '', 'srcFileSize': '101888', 'destFileSize': '0', 'convertType': 61, 'srcStoragePath': '', 'destStoragePath': '', 'convertTime': '0'}, 'message': '图片水印不存在或文件有误,请检查', 'errorcode': 26}</t>
         </is>
       </c>
-      <c r="G49" s="14" t="inlineStr">
+      <c r="G49" s="12" t="inlineStr">
         <is>
           <t>失败</t>
         </is>
@@ -13642,7 +13837,7 @@
           <t>Cannot convert FileNotFoundError(2, 'No such file or directory') to Excel</t>
         </is>
       </c>
-      <c r="G23" s="15" t="inlineStr">
+      <c r="G23" s="13" t="inlineStr">
         <is>
           <t>格式错误</t>
         </is>
@@ -13680,7 +13875,7 @@
           <t>Cannot convert FileNotFoundError(2, 'No such file or directory') to Excel</t>
         </is>
       </c>
-      <c r="G24" s="15" t="inlineStr">
+      <c r="G24" s="13" t="inlineStr">
         <is>
           <t>格式错误</t>
         </is>
@@ -13718,7 +13913,7 @@
           <t>Cannot convert FileNotFoundError(2, 'No such file or directory') to Excel</t>
         </is>
       </c>
-      <c r="G25" s="15" t="inlineStr">
+      <c r="G25" s="13" t="inlineStr">
         <is>
           <t>格式错误</t>
         </is>
@@ -13756,7 +13951,7 @@
           <t>Cannot convert FileNotFoundError(2, 'No such file or directory') to Excel</t>
         </is>
       </c>
-      <c r="G26" s="15" t="inlineStr">
+      <c r="G26" s="13" t="inlineStr">
         <is>
           <t>格式错误</t>
         </is>
@@ -13807,6 +14002,11 @@
       <c r="I27" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ppt_61_026.png</t>
+        </is>
+      </c>
     </row>
     <row r="28" ht="15.6" customFormat="1" customHeight="1" s="1">
       <c r="A28" s="1" t="inlineStr">
@@ -14482,7 +14682,7 @@
           <t>{'data': {'fileHash': 'f2afa0e0568ddeac310e67b43d71951a83099842f8982472b55f42eafe7b9440b', 'code': 26, 'destFileName': '', 'srcFileName': '', 'srcFileSize': '103424', 'destFileSize': '0', 'convertType': 61, 'srcStoragePath': '', 'destStoragePath': '', 'convertTime': '1'}, 'message': '图片水印不存在或文件有误,请检查', 'errorcode': 26}</t>
         </is>
       </c>
-      <c r="G43" s="14" t="inlineStr">
+      <c r="G43" s="12" t="inlineStr">
         <is>
           <t>失败</t>
         </is>
@@ -14520,7 +14720,7 @@
           <t>{'data': {'fileHash': 'f2afa0e0568ddeac310e67b43d71951a83099842f8982472b55f42eafe7b9440b', 'code': 26, 'destFileName': '', 'srcFileName': '', 'srcFileSize': '103424', 'destFileSize': '0', 'convertType': 61, 'srcStoragePath': '', 'destStoragePath': '', 'convertTime': '1'}, 'message': '图片水印不存在或文件有误,请检查', 'errorcode': 26}</t>
         </is>
       </c>
-      <c r="G44" s="14" t="inlineStr">
+      <c r="G44" s="12" t="inlineStr">
         <is>
           <t>失败</t>
         </is>
@@ -14558,7 +14758,7 @@
           <t>{'data': {'fileHash': 'f2afa0e0568ddeac310e67b43d71951a83099842f8982472b55f42eafe7b9440b', 'code': 26, 'destFileName': '', 'srcFileName': '', 'srcFileSize': '103424', 'destFileSize': '0', 'convertType': 61, 'srcStoragePath': '', 'destStoragePath': '', 'convertTime': '1'}, 'message': '图片水印不存在或文件有误,请检查', 'errorcode': 26}</t>
         </is>
       </c>
-      <c r="G45" s="14" t="inlineStr">
+      <c r="G45" s="12" t="inlineStr">
         <is>
           <t>失败</t>
         </is>
@@ -14596,7 +14796,7 @@
           <t>{'data': {'fileHash': 'f2afa0e0568ddeac310e67b43d71951a83099842f8982472b55f42eafe7b9440b', 'code': 26, 'destFileName': '', 'srcFileName': '', 'srcFileSize': '103424', 'destFileSize': '0', 'convertType': 61, 'srcStoragePath': '', 'destStoragePath': '', 'convertTime': '1'}, 'message': '图片水印不存在或文件有误,请检查', 'errorcode': 26}</t>
         </is>
       </c>
-      <c r="G46" s="14" t="inlineStr">
+      <c r="G46" s="12" t="inlineStr">
         <is>
           <t>失败</t>
         </is>
@@ -14634,7 +14834,7 @@
           <t>{'data': {'fileHash': 'f2afa0e0568ddeac310e67b43d71951a83099842f8982472b55f42eafe7b9440b', 'code': 26, 'destFileName': '', 'srcFileName': '', 'srcFileSize': '103424', 'destFileSize': '0', 'convertType': 61, 'srcStoragePath': '', 'destStoragePath': '', 'convertTime': '1'}, 'message': '图片水印不存在或文件有误,请检查', 'errorcode': 26}</t>
         </is>
       </c>
-      <c r="G47" s="14" t="inlineStr">
+      <c r="G47" s="12" t="inlineStr">
         <is>
           <t>失败</t>
         </is>
@@ -14672,7 +14872,7 @@
           <t>{'data': {'fileHash': 'f2afa0e0568ddeac310e67b43d71951a83099842f8982472b55f42eafe7b9440b', 'code': 26, 'destFileName': '', 'srcFileName': '', 'srcFileSize': '103424', 'destFileSize': '0', 'convertType': 61, 'srcStoragePath': '', 'destStoragePath': '', 'convertTime': '1'}, 'message': '图片水印不存在或文件有误,请检查', 'errorcode': 26}</t>
         </is>
       </c>
-      <c r="G48" s="14" t="inlineStr">
+      <c r="G48" s="12" t="inlineStr">
         <is>
           <t>失败</t>
         </is>
@@ -14710,7 +14910,7 @@
           <t>{'data': {'fileHash': 'f2afa0e0568ddeac310e67b43d71951a83099842f8982472b55f42eafe7b9440b', 'code': 26, 'destFileName': '', 'srcFileName': '', 'srcFileSize': '103424', 'destFileSize': '0', 'convertType': 61, 'srcStoragePath': '', 'destStoragePath': '', 'convertTime': '1'}, 'message': '图片水印不存在或文件有误,请检查', 'errorcode': 26}</t>
         </is>
       </c>
-      <c r="G49" s="14" t="inlineStr">
+      <c r="G49" s="12" t="inlineStr">
         <is>
           <t>失败</t>
         </is>
@@ -14748,7 +14948,7 @@
           <t>{'data': {'fileHash': 'f2afa0e0568ddeac310e67b43d71951a83099842f8982472b55f42eafe7b9440b', 'code': 26, 'destFileName': '', 'srcFileName': '', 'srcFileSize': '103424', 'destFileSize': '0', 'convertType': 61, 'srcStoragePath': '', 'destStoragePath': '', 'convertTime': '1'}, 'message': '图片水印不存在或文件有误,请检查', 'errorcode': 26}</t>
         </is>
       </c>
-      <c r="G50" s="14" t="inlineStr">
+      <c r="G50" s="12" t="inlineStr">
         <is>
           <t>失败</t>
         </is>
@@ -14786,7 +14986,7 @@
           <t>{'data': {'fileHash': 'f2afa0e0568ddeac310e67b43d71951a83099842f8982472b55f42eafe7b9440b', 'code': 26, 'destFileName': '', 'srcFileName': '', 'srcFileSize': '103424', 'destFileSize': '0', 'convertType': 61, 'srcStoragePath': '', 'destStoragePath': '', 'convertTime': '4'}, 'message': '图片水印不存在或文件有误,请检查', 'errorcode': 26}</t>
         </is>
       </c>
-      <c r="G51" s="14" t="inlineStr">
+      <c r="G51" s="12" t="inlineStr">
         <is>
           <t>失败</t>
         </is>
@@ -14824,7 +15024,7 @@
           <t>{'data': {'fileHash': 'f2afa0e0568ddeac310e67b43d71951a83099842f8982472b55f42eafe7b9440b', 'code': 26, 'destFileName': '', 'srcFileName': '', 'srcFileSize': '103424', 'destFileSize': '0', 'convertType': 61, 'srcStoragePath': '', 'destStoragePath': '', 'convertTime': '1'}, 'message': '图片水印不存在或文件有误,请检查', 'errorcode': 26}</t>
         </is>
       </c>
-      <c r="G52" s="14" t="inlineStr">
+      <c r="G52" s="12" t="inlineStr">
         <is>
           <t>失败</t>
         </is>
@@ -14862,7 +15062,7 @@
           <t>{'data': {'fileHash': 'f2afa0e0568ddeac310e67b43d71951a83099842f8982472b55f42eafe7b9440b', 'code': 26, 'destFileName': '', 'srcFileName': '', 'srcFileSize': '103424', 'destFileSize': '0', 'convertType': 61, 'srcStoragePath': '', 'destStoragePath': '', 'convertTime': '1'}, 'message': '图片水印不存在或文件有误,请检查', 'errorcode': 26}</t>
         </is>
       </c>
-      <c r="G53" s="14" t="inlineStr">
+      <c r="G53" s="12" t="inlineStr">
         <is>
           <t>失败</t>
         </is>
@@ -14943,7 +15143,7 @@
           <t>{'data': {'fileHash': 'f2afa0e0568ddeac310e67b43d71951a83099842f8982472b55f42eafe7b9440b', 'code': 26, 'destFileName': '', 'srcFileName': '', 'srcFileSize': '103424', 'destFileSize': '0', 'convertType': 61, 'srcStoragePath': '', 'destStoragePath': '', 'convertTime': '1'}, 'message': '图片水印不存在或文件有误,请检查', 'errorcode': 26}</t>
         </is>
       </c>
-      <c r="G55" s="14" t="inlineStr">
+      <c r="G55" s="12" t="inlineStr">
         <is>
           <t>失败</t>
         </is>
@@ -15088,54 +15288,55 @@
     <hyperlink ref="B26" r:id="rId46"/>
     <hyperlink ref="B27" r:id="rId47"/>
     <hyperlink ref="H27" r:id="rId48"/>
-    <hyperlink ref="B28" r:id="rId49"/>
-    <hyperlink ref="H28" r:id="rId50"/>
-    <hyperlink ref="B29" r:id="rId51"/>
-    <hyperlink ref="H29" r:id="rId52"/>
-    <hyperlink ref="B30" r:id="rId53"/>
-    <hyperlink ref="H30" r:id="rId54"/>
-    <hyperlink ref="B31" r:id="rId55"/>
-    <hyperlink ref="H31" r:id="rId56"/>
-    <hyperlink ref="B32" r:id="rId57"/>
-    <hyperlink ref="H32" r:id="rId58"/>
-    <hyperlink ref="B33" r:id="rId59"/>
-    <hyperlink ref="H33" r:id="rId60"/>
-    <hyperlink ref="B34" r:id="rId61"/>
-    <hyperlink ref="H34" r:id="rId62"/>
-    <hyperlink ref="B35" r:id="rId63"/>
-    <hyperlink ref="H35" r:id="rId64"/>
-    <hyperlink ref="B36" r:id="rId65"/>
-    <hyperlink ref="H36" r:id="rId66"/>
-    <hyperlink ref="B37" r:id="rId67"/>
-    <hyperlink ref="H37" r:id="rId68"/>
-    <hyperlink ref="B38" r:id="rId69"/>
-    <hyperlink ref="H38" r:id="rId70"/>
-    <hyperlink ref="B39" r:id="rId71"/>
-    <hyperlink ref="H39" r:id="rId72"/>
-    <hyperlink ref="B40" r:id="rId73"/>
-    <hyperlink ref="H40" r:id="rId74"/>
-    <hyperlink ref="B41" r:id="rId75"/>
-    <hyperlink ref="H41" r:id="rId76"/>
-    <hyperlink ref="B42" r:id="rId77"/>
-    <hyperlink ref="H42" r:id="rId78"/>
-    <hyperlink ref="B43" r:id="rId79"/>
-    <hyperlink ref="B44" r:id="rId80"/>
-    <hyperlink ref="B45" r:id="rId81"/>
-    <hyperlink ref="B46" r:id="rId82"/>
-    <hyperlink ref="B47" r:id="rId83"/>
-    <hyperlink ref="B48" r:id="rId84"/>
-    <hyperlink ref="B49" r:id="rId85"/>
-    <hyperlink ref="B50" r:id="rId86"/>
-    <hyperlink ref="B51" r:id="rId87"/>
-    <hyperlink ref="B52" r:id="rId88"/>
-    <hyperlink ref="B53" r:id="rId89"/>
-    <hyperlink ref="B54" r:id="rId90"/>
-    <hyperlink ref="H54" r:id="rId91"/>
-    <hyperlink ref="B55" r:id="rId92"/>
-    <hyperlink ref="B56" r:id="rId93"/>
-    <hyperlink ref="H56" r:id="rId94"/>
-    <hyperlink ref="B57" r:id="rId95"/>
-    <hyperlink ref="H57" r:id="rId96"/>
+    <hyperlink ref="J27" r:id="rId49"/>
+    <hyperlink ref="B28" r:id="rId50"/>
+    <hyperlink ref="H28" r:id="rId51"/>
+    <hyperlink ref="B29" r:id="rId52"/>
+    <hyperlink ref="H29" r:id="rId53"/>
+    <hyperlink ref="B30" r:id="rId54"/>
+    <hyperlink ref="H30" r:id="rId55"/>
+    <hyperlink ref="B31" r:id="rId56"/>
+    <hyperlink ref="H31" r:id="rId57"/>
+    <hyperlink ref="B32" r:id="rId58"/>
+    <hyperlink ref="H32" r:id="rId59"/>
+    <hyperlink ref="B33" r:id="rId60"/>
+    <hyperlink ref="H33" r:id="rId61"/>
+    <hyperlink ref="B34" r:id="rId62"/>
+    <hyperlink ref="H34" r:id="rId63"/>
+    <hyperlink ref="B35" r:id="rId64"/>
+    <hyperlink ref="H35" r:id="rId65"/>
+    <hyperlink ref="B36" r:id="rId66"/>
+    <hyperlink ref="H36" r:id="rId67"/>
+    <hyperlink ref="B37" r:id="rId68"/>
+    <hyperlink ref="H37" r:id="rId69"/>
+    <hyperlink ref="B38" r:id="rId70"/>
+    <hyperlink ref="H38" r:id="rId71"/>
+    <hyperlink ref="B39" r:id="rId72"/>
+    <hyperlink ref="H39" r:id="rId73"/>
+    <hyperlink ref="B40" r:id="rId74"/>
+    <hyperlink ref="H40" r:id="rId75"/>
+    <hyperlink ref="B41" r:id="rId76"/>
+    <hyperlink ref="H41" r:id="rId77"/>
+    <hyperlink ref="B42" r:id="rId78"/>
+    <hyperlink ref="H42" r:id="rId79"/>
+    <hyperlink ref="B43" r:id="rId80"/>
+    <hyperlink ref="B44" r:id="rId81"/>
+    <hyperlink ref="B45" r:id="rId82"/>
+    <hyperlink ref="B46" r:id="rId83"/>
+    <hyperlink ref="B47" r:id="rId84"/>
+    <hyperlink ref="B48" r:id="rId85"/>
+    <hyperlink ref="B49" r:id="rId86"/>
+    <hyperlink ref="B50" r:id="rId87"/>
+    <hyperlink ref="B51" r:id="rId88"/>
+    <hyperlink ref="B52" r:id="rId89"/>
+    <hyperlink ref="B53" r:id="rId90"/>
+    <hyperlink ref="B54" r:id="rId91"/>
+    <hyperlink ref="H54" r:id="rId92"/>
+    <hyperlink ref="B55" r:id="rId93"/>
+    <hyperlink ref="B56" r:id="rId94"/>
+    <hyperlink ref="H56" r:id="rId95"/>
+    <hyperlink ref="B57" r:id="rId96"/>
+    <hyperlink ref="H57" r:id="rId97"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
